--- a/app-server/src/main/resources/2021_users.xlsx
+++ b/app-server/src/main/resources/2021_users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F225BE-3F04-B946-B926-1C463B817D0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C86B6F-5F2D-4442-B5E2-F35C242558D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="1660" windowWidth="27240" windowHeight="16440" xr2:uid="{24854F6E-8DBB-A24B-9375-81828EA890B2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4279" uniqueCount="2784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4289" uniqueCount="2790">
   <si>
     <t>Mahdi</t>
   </si>
@@ -8377,13 +8377,31 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Sang-Wook</t>
+  </si>
+  <si>
+    <t>dummy@dummy1.com</t>
+  </si>
+  <si>
+    <t>Pasi</t>
+  </si>
+  <si>
+    <t>Fränti</t>
+  </si>
+  <si>
+    <t>dummy@dummy2.com</t>
+  </si>
+  <si>
+    <t>University of Eastern Finland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8394,6 +8412,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -8404,6 +8423,20 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -8427,7 +8460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -8450,12 +8483,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8478,8 +8523,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{FED0A7F6-68B4-6943-BA8B-A0A7FC54D6B2}"/>
   </cellStyles>
@@ -8793,11 +8847,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A83F96F6-7D5B-C941-8C3F-F8E52B9AD275}">
-  <dimension ref="A1:E856"/>
+  <dimension ref="A1:E858"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L275" sqref="L275"/>
+      <pane ySplit="1" topLeftCell="A715" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L737" sqref="L737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23357,7 +23411,45 @@
         <v>19</v>
       </c>
     </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A857" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B857" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C857" s="9" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D857" t="s">
+        <v>513</v>
+      </c>
+      <c r="E857" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A858" s="11" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B858" s="8" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C858" s="9" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D858" t="s">
+        <v>2789</v>
+      </c>
+      <c r="E858" s="8" t="s">
+        <v>716</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C857" r:id="rId1" xr:uid="{0ABC5614-D075-4D45-98BF-F754A86D6E74}"/>
+    <hyperlink ref="C858" r:id="rId2" xr:uid="{E491F3A1-82A6-BD45-B91B-7C60C128B9E2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/app-server/src/main/resources/2021_users.xlsx
+++ b/app-server/src/main/resources/2021_users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bushong/code/acmsac/app-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C86B6F-5F2D-4442-B5E2-F35C242558D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8E0DA8-2249-6C48-B381-C1205605EF05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2620" yWindow="1660" windowWidth="27240" windowHeight="16440" xr2:uid="{24854F6E-8DBB-A24B-9375-81828EA890B2}"/>
   </bookViews>
@@ -8382,19 +8382,19 @@
     <t>Sang-Wook</t>
   </si>
   <si>
-    <t>dummy@dummy1.com</t>
-  </si>
-  <si>
     <t>Pasi</t>
   </si>
   <si>
     <t>Fränti</t>
   </si>
   <si>
-    <t>dummy@dummy2.com</t>
-  </si>
-  <si>
     <t>University of Eastern Finland</t>
+  </si>
+  <si>
+    <t>wook@agape.hanyang.ac.kr</t>
+  </si>
+  <si>
+    <t>franti@cs.uef.fi</t>
   </si>
 </sst>
 </file>
@@ -8850,8 +8850,8 @@
   <dimension ref="A1:E858"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A715" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L737" sqref="L737"/>
+      <pane ySplit="1" topLeftCell="A847" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H851" sqref="H851"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23419,7 +23419,7 @@
         <v>234</v>
       </c>
       <c r="C857" s="9" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="D857" t="s">
         <v>513</v>
@@ -23430,16 +23430,16 @@
     </row>
     <row r="858" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A858" s="11" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B858" s="8" t="s">
         <v>2786</v>
       </c>
-      <c r="B858" s="8" t="s">
+      <c r="C858" s="9" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D858" t="s">
         <v>2787</v>
-      </c>
-      <c r="C858" s="9" t="s">
-        <v>2788</v>
-      </c>
-      <c r="D858" t="s">
-        <v>2789</v>
       </c>
       <c r="E858" s="8" t="s">
         <v>716</v>
@@ -23447,8 +23447,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C857" r:id="rId1" xr:uid="{0ABC5614-D075-4D45-98BF-F754A86D6E74}"/>
-    <hyperlink ref="C858" r:id="rId2" xr:uid="{E491F3A1-82A6-BD45-B91B-7C60C128B9E2}"/>
+    <hyperlink ref="C857" r:id="rId1" xr:uid="{B70BF599-E6AD-2D48-9E24-B429477B88F2}"/>
+    <hyperlink ref="C858" r:id="rId2" tooltip="mailto:franti@cs.uef.fi" display="mailto:franti@cs.uef.fi" xr:uid="{525F7796-34F9-7F42-B79D-6B9F024E0036}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
